--- a/Tables/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1.xlsx
+++ b/Tables/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1.xlsx
@@ -64,265 +64,265 @@
     <t xml:space="preserve">ACCGGU</t>
   </si>
   <si>
-    <t xml:space="preserve">-56.29 (-58.62 to -54.09)</t>
+    <t xml:space="preserve">-55 (-57.38 to -51.82)</t>
   </si>
   <si>
     <t xml:space="preserve">-54.1 (±4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-159.37 (-166.82 to -152.47)</t>
+    <t xml:space="preserve">-154.53 (-162.14 to -144.44)</t>
   </si>
   <si>
     <t xml:space="preserve">-151.5 (±12.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.87 (-6.92 to -6.8)</t>
+    <t xml:space="preserve">-7.07 (-7.13 to -7.01)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.11 (±0.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">43.69 (43.44 to 44.06)</t>
+    <t xml:space="preserve">45.08 (44.65 to 45.49)</t>
   </si>
   <si>
     <t xml:space="preserve">CCAUGG</t>
   </si>
   <si>
-    <t xml:space="preserve">-60.24 (-60.9 to -59.4)</t>
+    <t xml:space="preserve">-60.23 (-60.97 to -59.44)</t>
   </si>
   <si>
     <t xml:space="preserve">-60.4 (±2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-172.67 (-174.72 to -170.02)</t>
+    <t xml:space="preserve">-172.34 (-174.67 to -169.83)</t>
   </si>
   <si>
     <t xml:space="preserve">-173.6 (±6.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.69 (-6.71 to -6.66)</t>
+    <t xml:space="preserve">-6.78 (-6.8 to -6.75)</t>
   </si>
   <si>
     <t xml:space="preserve">-6.52 (±0.05)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3 (42.16 to 42.38)</t>
+    <t xml:space="preserve">42.79 (42.67 to 42.89)</t>
   </si>
   <si>
     <t xml:space="preserve">CGAAAGGU/ACCUUUCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-68.63 (-70.08 to -67.3)</t>
+    <t xml:space="preserve">-68.36 (-69.53 to -67.32)</t>
   </si>
   <si>
     <t xml:space="preserve">-67.02 (±3.025)</t>
   </si>
   <si>
-    <t xml:space="preserve">-188.66 (-193.14 to -184.46)</t>
+    <t xml:space="preserve">-187.52 (-191.12 to -184.29)</t>
   </si>
   <si>
     <t xml:space="preserve">-184.51 (±9.497)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.12 (-10.19 to -10.06)</t>
+    <t xml:space="preserve">-10.21 (-10.27 to -10.14)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.8 (±0.087)</t>
   </si>
   <si>
-    <t xml:space="preserve">54.13 (53.88 to 54.44)</t>
+    <t xml:space="preserve">54.63 (54.39 to 54.83)</t>
   </si>
   <si>
     <t xml:space="preserve">CGCGCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-55.71 (-56.58 to -54.93)</t>
+    <t xml:space="preserve">-55.76 (-56.7 to -54.81)</t>
   </si>
   <si>
     <t xml:space="preserve">-55.6 (±1.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-153.82 (-156.54 to -151.35)</t>
+    <t xml:space="preserve">-153.54 (-156.57 to -150.55)</t>
   </si>
   <si>
     <t xml:space="preserve">-153.9 (±4.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.01 (-8.04 to -7.98)</t>
+    <t xml:space="preserve">-8.14 (-8.17 to -8.11)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.85 (±0.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.55 (50.44 to 50.65)</t>
+    <t xml:space="preserve">51.34 (51.17 to 51.43)</t>
   </si>
   <si>
     <t xml:space="preserve">CGUUGC/GCAACG</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.75 (-53.3 to -49.96)</t>
+    <t xml:space="preserve">-51.26 (-53.01 to -49.91)</t>
   </si>
   <si>
     <t xml:space="preserve">-51.06 (±3.567)</t>
   </si>
   <si>
-    <t xml:space="preserve">-143.18 (-148.19 to -137.46)</t>
+    <t xml:space="preserve">-141.26 (-146.9 to -137.01)</t>
   </si>
   <si>
     <t xml:space="preserve">-141.39 (±11.476)</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.34 (-7.4 to -7.27)</t>
+    <t xml:space="preserve">-7.44 (-7.49 to -7.39)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.21 (±0.087)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.94 (41.49 to 42.35)</t>
+    <t xml:space="preserve">42.62 (42.22 to 42.92)</t>
   </si>
   <si>
     <t xml:space="preserve">CUGAGUC/GACUCAG</t>
   </si>
   <si>
-    <t xml:space="preserve">-64.1 (-65.11 to -63.18)</t>
+    <t xml:space="preserve">-64.26 (-65.2 to -63.2)</t>
   </si>
   <si>
     <t xml:space="preserve">-63.32 (±1.928)</t>
   </si>
   <si>
-    <t xml:space="preserve">-176.38 (-179.59 to -173.48)</t>
+    <t xml:space="preserve">-176.54 (-179.47 to -173.15)</t>
   </si>
   <si>
     <t xml:space="preserve">-174.65 (±6.191)</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.4 (-9.43 to -9.38)</t>
+    <t xml:space="preserve">-9.51 (-9.54 to -9.49)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.15 (±0.03)</t>
   </si>
   <si>
-    <t xml:space="preserve">51.52 (51.36 to 51.65)</t>
+    <t xml:space="preserve">52.07 (51.89 to 52.25)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGAAAGGU/ACCUUUCGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-83.39 (-85.59 to -81.35)</t>
+    <t xml:space="preserve">-83.96 (-87.89 to -80.56)</t>
   </si>
   <si>
     <t xml:space="preserve">-81.12 (±1.583)</t>
   </si>
   <si>
-    <t xml:space="preserve">-223.59 (-230.19 to -217.48)</t>
+    <t xml:space="preserve">-224.95 (-236.79 to -214.85)</t>
   </si>
   <si>
     <t xml:space="preserve">-217.61 (±5.076)</t>
   </si>
   <si>
-    <t xml:space="preserve">-14.05 (-14.19 to -13.89)</t>
+    <t xml:space="preserve">-14.2 (-14.47 to -13.95)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.63 (±0.092)</t>
   </si>
   <si>
-    <t xml:space="preserve">67.71 (67.45 to 67.92)</t>
+    <t xml:space="preserve">68.16 (67.67 to 68.61)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGUUGC/GCAACGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-58.73 (-61.23 to -56.59)</t>
+    <t xml:space="preserve">-58.46 (-60.11 to -56.19)</t>
   </si>
   <si>
     <t xml:space="preserve">-61.47 (±3.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-155.86 (-163.58 to -149.43)</t>
+    <t xml:space="preserve">-154.48 (-159.63 to -147.62)</t>
   </si>
   <si>
     <t xml:space="preserve">-164.74 (±10.499)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.39 (-10.53 to -10.25)</t>
+    <t xml:space="preserve">-10.55 (-10.74 to -10.39)</t>
   </si>
   <si>
     <t xml:space="preserve">-10.38 (±0.163)</t>
   </si>
   <si>
-    <t xml:space="preserve">58.82 (58.55 to 59.34)</t>
+    <t xml:space="preserve">59.9 (59.38 to 61.16)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCUGAGUC/GACUCAGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-74.71 (-75.97 to -73.37)</t>
+    <t xml:space="preserve">-75.4 (-77.94 to -73.96)</t>
   </si>
   <si>
     <t xml:space="preserve">-74.43 (±2.316)</t>
   </si>
   <si>
-    <t xml:space="preserve">-197.61 (-201.33 to -193.74)</t>
+    <t xml:space="preserve">-199.25 (-206.69 to -195)</t>
   </si>
   <si>
     <t xml:space="preserve">-197.46 (±6.709)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.42 (-13.53 to -13.3)</t>
+    <t xml:space="preserve">-13.6 (-13.85 to -13.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.19 (±0.275)</t>
   </si>
   <si>
-    <t xml:space="preserve">68.51 (68.33 to 68.65)</t>
+    <t xml:space="preserve">69.11 (68.94 to 69.29)</t>
   </si>
   <si>
     <t xml:space="preserve">GAUAUAUC</t>
   </si>
   <si>
-    <t xml:space="preserve">-73.52 (-74.35 to -72.5)</t>
+    <t xml:space="preserve">-72.99 (-74.24 to -71.61)</t>
   </si>
   <si>
     <t xml:space="preserve">-74.2 (±4.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-220.03 (-222.79 to -216.73)</t>
+    <t xml:space="preserve">-218.01 (-222.07 to -213.57)</t>
   </si>
   <si>
     <t xml:space="preserve">-221.7 (±14.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.28 (-5.3 to -5.24)</t>
+    <t xml:space="preserve">-5.37 (-5.41 to -5.34)</t>
   </si>
   <si>
     <t xml:space="preserve">-5.41 (±0.06)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.33 (35.18 to 35.43)</t>
+    <t xml:space="preserve">35.7 (35.55 to 35.86)</t>
   </si>
   <si>
     <t xml:space="preserve">GCAAUUGC</t>
   </si>
   <si>
-    <t xml:space="preserve">-77.79 (-79.1 to -76.63)</t>
+    <t xml:space="preserve">-77.39 (-78.73 to -75.77)</t>
   </si>
   <si>
     <t xml:space="preserve">-79.4 (±3.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">-223.33 (-227.48 to -219.74)</t>
+    <t xml:space="preserve">-221.74 (-225.9 to -216.76)</t>
   </si>
   <si>
     <t xml:space="preserve">-229.8 (±11.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.52 (-8.56 to -8.46)</t>
+    <t xml:space="preserve">-8.62 (-8.68 to -8.54)</t>
   </si>
   <si>
     <t xml:space="preserve">-8.15 (±0.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">48.77 (48.57 to 48.89)</t>
+    <t xml:space="preserve">49.26 (49.12 to 49.35)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,8 +436,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,16 +510,16 @@
         <v>45.4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3.96775070205634</v>
+        <v>1.64986251145738</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>5.06320970180462</v>
+        <v>1.98019801980198</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3.43347639484979</v>
+        <v>0.564174894217208</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.83881468178247</v>
+        <v>0.707338638373122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,16 +551,16 @@
         <v>41.4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.265251989389915</v>
+        <v>0.281853601923239</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.537153088630264</v>
+        <v>0.728450020234717</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2.57380772142318</v>
+        <v>3.90977443609024</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>2.1505376344086</v>
+        <v>3.302054875876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,16 +592,16 @@
         <v>52.9</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>2.37375598967932</v>
+        <v>1.97961294135028</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2.22418736768765</v>
+        <v>1.61814907399942</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3.21285140562247</v>
+        <v>4.09795102448776</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2.29842100345698</v>
+        <v>3.2177066865061</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,16 +633,16 @@
         <v>49.6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.197646213278231</v>
+        <v>0.287356321839074</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0519953204211702</v>
+        <v>0.234192037470735</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>2.01765447667087</v>
+        <v>3.6272670419012</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.8971542685971</v>
+        <v>3.44759262928473</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,16 +674,16 @@
         <v>41.2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.34228187919463</v>
+        <v>0.390930414386231</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1.25803844396811</v>
+        <v>0.0919865558110706</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1.78694158075601</v>
+        <v>3.13993174061434</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.78012990137117</v>
+        <v>3.38821283703172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,16 +715,16 @@
         <v>50.4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1.22429759849316</v>
+        <v>1.47358520144224</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.985670740392553</v>
+        <v>1.07634044249551</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.69541778975741</v>
+        <v>3.85852090032154</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2.19780219780221</v>
+        <v>3.25949058260955</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,16 +756,16 @@
         <v>66.7</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>2.75971065588718</v>
+        <v>3.44075599709231</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2.71078875793291</v>
+        <v>3.3170643528561</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3.03468208092485</v>
+        <v>4.09629895795903</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.50286437021054</v>
+        <v>2.16520836422956</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,16 +797,16 @@
         <v>57.7</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>4.55906821963395</v>
+        <v>5.0195947636121</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>5.53961322520274</v>
+        <v>6.42816866111147</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.0962927298988906</v>
+        <v>1.62446249402771</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1.92241675248884</v>
+        <v>3.74149659863945</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,16 +838,16 @@
         <v>67.5</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.375486120423745</v>
+        <v>1.29480077421077</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.0759359100918853</v>
+        <v>0.902422424441023</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1.72867343104097</v>
+        <v>3.0608435983576</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.48518491287406</v>
+        <v>2.35707488470829</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,16 +879,16 @@
         <v>35.9</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.920660709450321</v>
+        <v>1.64413343297779</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.756117990627753</v>
+        <v>1.67837893156853</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>2.43217960710945</v>
+        <v>0.742115027829314</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1.60044924891198</v>
+        <v>0.558659217877083</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,34 +920,34 @@
         <v>47</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>2.04847636618105</v>
+        <v>2.56393902672365</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2.85569262683998</v>
+        <v>3.57000487221509</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>4.43911217756448</v>
+        <v>5.60524746571257</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>3.69635585256344</v>
+        <v>4.69561603989196</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="0" t="n">
         <f aca="false">AVERAGE(J2:J12)</f>
-        <v>1.82130785851526</v>
+        <v>1.82058408972864</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">AVERAGE(K2:K12)</f>
-        <v>2.00530937941815</v>
+        <v>1.96594139927324</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">AVERAGE(L2:L12)</f>
-        <v>2.49555358141985</v>
+        <v>3.12059887104714</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">AVERAGE(M2:M12)</f>
-        <v>2.21546643858794</v>
+        <v>2.8036773959116</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1.xlsx
+++ b/Tables/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1/01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsie\Documents\meltR.a.paper\Tables\01_BLtrimmer_results_comparing_MeltR_method_1_to_Meltwin_method_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CEA9A3-24B3-49A3-AAFE-43A7023AD57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A04A52E6-7334-46C9-8EBB-2BC2B92EF375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="588" yWindow="948" windowWidth="13356" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="01_BLtrimmer_results_comparing_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Helix</t>
   </si>
@@ -64,13 +64,13 @@
     <t>ACCGGU</t>
   </si>
   <si>
-    <t>-55.03 (-57.3 to -52.39)</t>
+    <t>-54.89 (-57.11 to -51.93)</t>
   </si>
   <si>
     <t>-54.1 (Â±4)</t>
   </si>
   <si>
-    <t>-154.64 (-162 to -146.17)</t>
+    <t>-154.2 (-161.22 to -144.69)</t>
   </si>
   <si>
     <t>-151.5 (Â±12.4)</t>
@@ -82,91 +82,91 @@
     <t>-7.11 (Â±0.2)</t>
   </si>
   <si>
-    <t>45.03 (44.64 to 45.44)</t>
+    <t>45.05 (44.6 to 45.49)</t>
   </si>
   <si>
     <t>CCAUGG</t>
   </si>
   <si>
-    <t>-60.28 (-61.16 to -59.4)</t>
+    <t>-60.37 (-61.33 to -59.56)</t>
   </si>
   <si>
     <t>-60.4 (Â±2)</t>
   </si>
   <si>
-    <t>-172.47 (-175.32 to -169.73)</t>
+    <t>-172.79 (-175.85 to -170.23)</t>
   </si>
   <si>
     <t>-173.6 (Â±6.4)</t>
   </si>
   <si>
-    <t>-6.78 (-6.8 to -6.76)</t>
+    <t>-6.78 (-6.8 to -6.75)</t>
   </si>
   <si>
     <t>-6.52 (Â±0.05)</t>
   </si>
   <si>
-    <t>42.8 (42.68 to 42.88)</t>
+    <t>42.79 (42.65 to 42.88)</t>
   </si>
   <si>
     <t>CGAAAGGU/ACCUUUCG</t>
   </si>
   <si>
-    <t>-68.16 (-69.5 to -67.14)</t>
+    <t>-68.2 (-69.59 to -66.9)</t>
   </si>
   <si>
     <t>-67.02 (Â±3.025)</t>
   </si>
   <si>
-    <t>-188.27 (-192.39 to -185.14)</t>
+    <t>-188.37 (-192.64 to -184.42)</t>
   </si>
   <si>
     <t>-184.51 (Â±9.497)</t>
   </si>
   <si>
-    <t>-9.77 (-9.84 to -9.7)</t>
+    <t>-9.77 (-9.84 to -9.71)</t>
   </si>
   <si>
     <t>-9.8 (Â±0.087)</t>
   </si>
   <si>
-    <t>52.49 (52.3 to 52.69)</t>
+    <t>52.48 (52.25 to 52.64)</t>
   </si>
   <si>
     <t>CGCGCG</t>
   </si>
   <si>
-    <t>-55.78 (-57.08 to -54.69)</t>
+    <t>-55.77 (-56.62 to -55)</t>
   </si>
   <si>
     <t>-55.6 (Â±1.3)</t>
   </si>
   <si>
-    <t>-153.62 (-157.76 to -150.19)</t>
+    <t>-153.57 (-156.2 to -151.15)</t>
   </si>
   <si>
     <t>-153.9 (Â±4.3)</t>
   </si>
   <si>
-    <t>-8.14 (-8.18 to -8.1)</t>
+    <t>-8.14 (-8.18 to -8.11)</t>
   </si>
   <si>
     <t>-7.85 (Â±0.17)</t>
   </si>
   <si>
-    <t>51.32 (51.05 to 51.43)</t>
+    <t>51.34 (51.25 to 51.43)</t>
   </si>
   <si>
     <t>CGUUGC/GCAACG</t>
   </si>
   <si>
-    <t>-51.4 (-53 to -49.85)</t>
+    <t>-51.61 (-52.98 to -49.85)</t>
   </si>
   <si>
     <t>-51.06 (Â±3.567)</t>
   </si>
   <si>
-    <t>-143.12 (-148.39 to -138.13)</t>
+    <t>-143.79 (-148.21 to -138.08)</t>
   </si>
   <si>
     <t>-141.39 (Â±11.476)</t>
@@ -178,115 +178,115 @@
     <t>-7.21 (Â±0.087)</t>
   </si>
   <si>
-    <t>39.94 (39.46 to 40.29)</t>
+    <t>39.91 (39.46 to 40.3)</t>
   </si>
   <si>
     <t>CUGAGUC/GACUCAG</t>
   </si>
   <si>
-    <t>-64.29 (-65.15 to -63.34)</t>
+    <t>-64.24 (-65.12 to -63.31)</t>
   </si>
   <si>
     <t>-63.32 (Â±1.928)</t>
   </si>
   <si>
-    <t>-178 (-180.69 to -175)</t>
+    <t>-177.85 (-180.62 to -174.9)</t>
   </si>
   <si>
     <t>-174.65 (Â±6.191)</t>
   </si>
   <si>
-    <t>-9.08 (-9.11 to -9.06)</t>
+    <t>-9.08 (-9.1 to -9.06)</t>
   </si>
   <si>
     <t>-9.15 (Â±0.03)</t>
   </si>
   <si>
-    <t>49.83 (49.7 to 49.96)</t>
+    <t>49.82 (49.68 to 49.95)</t>
   </si>
   <si>
     <t>FAMCGAAAGGU/ACCUUUCGBHQ1</t>
   </si>
   <si>
-    <t>-83.74 (-87.19 to -80.92)</t>
+    <t>-83.62 (-87.32 to -79.99)</t>
   </si>
   <si>
     <t>-81.12 (Â±1.583)</t>
   </si>
   <si>
-    <t>-225.66 (-236 to -217.16)</t>
+    <t>-225.31 (-236.37 to -214.42)</t>
   </si>
   <si>
     <t>-217.61 (Â±5.076)</t>
   </si>
   <si>
-    <t>-13.76 (-13.99 to -13.57)</t>
+    <t>-13.75 (-14.01 to -13.48)</t>
   </si>
   <si>
     <t>-13.63 (Â±0.092)</t>
   </si>
   <si>
-    <t>66.28 (66.01 to 66.69)</t>
+    <t>66.28 (66.02 to 66.65)</t>
   </si>
   <si>
     <t>FAMCGUUGC/GCAACGBHQ1</t>
   </si>
   <si>
-    <t>-58.47 (-61.11 to -55.84)</t>
+    <t>-58.46 (-60.45 to -56.31)</t>
   </si>
   <si>
     <t>-61.47 (Â±3.4)</t>
   </si>
   <si>
-    <t>-155.86 (-164.09 to -147.85)</t>
+    <t>-155.88 (-161.97 to -149.38)</t>
   </si>
   <si>
     <t>-164.74 (Â±10.499)</t>
   </si>
   <si>
-    <t>-10.13 (-10.32 to -9.98)</t>
+    <t>-10.12 (-10.29 to -9.96)</t>
   </si>
   <si>
     <t>-10.38 (Â±0.163)</t>
   </si>
   <si>
-    <t>57.32 (56.83 to 58.42)</t>
+    <t>57.26 (56.88 to 58.17)</t>
   </si>
   <si>
     <t>FAMCUGAGUC/GACUCAGBHQ1</t>
   </si>
   <si>
-    <t>-75.5 (-78.58 to -73.83)</t>
+    <t>-75.26 (-77.4 to -73.85)</t>
   </si>
   <si>
     <t>-74.43 (Â±2.316)</t>
   </si>
   <si>
-    <t>-200.92 (-209.93 to -196.02)</t>
+    <t>-200.22 (-206.44 to -196.06)</t>
   </si>
   <si>
     <t>-197.46 (Â±6.709)</t>
   </si>
   <si>
-    <t>-13.19 (-13.47 to -13.04)</t>
+    <t>-13.17 (-13.4 to -13.03)</t>
   </si>
   <si>
     <t>-13.19 (Â±0.275)</t>
   </si>
   <si>
-    <t>66.98 (66.82 to 67.2)</t>
+    <t>66.99 (66.86 to 67.19)</t>
   </si>
   <si>
     <t>GAUAUAUC</t>
   </si>
   <si>
-    <t>-72.93 (-74.41 to -71.75)</t>
+    <t>-72.95 (-74.09 to -71.66)</t>
   </si>
   <si>
     <t>-74.2 (Â±4.4)</t>
   </si>
   <si>
-    <t>-217.83 (-222.65 to -214.04)</t>
+    <t>-217.88 (-221.54 to -213.71)</t>
   </si>
   <si>
     <t>-221.7 (Â±14.2)</t>
@@ -298,40 +298,61 @@
     <t>-5.41 (Â±0.06)</t>
   </si>
   <si>
-    <t>35.71 (35.57 to 35.83)</t>
+    <t>35.72 (35.58 to 35.84)</t>
   </si>
   <si>
     <t>GCAAUUGC</t>
   </si>
   <si>
-    <t>-77.58 (-78.8 to -75.79)</t>
+    <t>-77.51 (-78.71 to -75.8)</t>
   </si>
   <si>
     <t>-79.4 (Â±3.8)</t>
   </si>
   <si>
-    <t>-222.32 (-226.1 to -216.83)</t>
+    <t>-222.11 (-225.79 to -216.83)</t>
   </si>
   <si>
     <t>-229.8 (Â±11.9)</t>
   </si>
   <si>
-    <t>-8.63 (-8.68 to -8.54)</t>
+    <t>-8.63 (-8.69 to -8.55)</t>
   </si>
   <si>
     <t>-8.15 (Â±0.12)</t>
   </si>
   <si>
-    <t>49.26 (49.11 to 49.35)</t>
+    <t>49.27 (49.14 to 49.35)</t>
+  </si>
+  <si>
+    <t>UAUAUAUA</t>
+  </si>
+  <si>
+    <t>-62.24 (-66.05 to -59.75)</t>
+  </si>
+  <si>
+    <t>-63.1 (Â±2.2)</t>
+  </si>
+  <si>
+    <t>-193.76 (-206.92 to -185.22)</t>
+  </si>
+  <si>
+    <t>-196.1 (Â±7.4)</t>
+  </si>
+  <si>
+    <t>-2.14 (-2.31 to -1.87)</t>
+  </si>
+  <si>
+    <t>-2.27 (Â±0.09)</t>
+  </si>
+  <si>
+    <t>20.35 (20.08 to 20.51)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,9 +830,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1159,7 +1179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1167,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J14" sqref="J14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,16 +1265,16 @@
         <v>45.4</v>
       </c>
       <c r="J2">
-        <v>1.70438926051498</v>
+        <v>1.4496742820442201</v>
       </c>
       <c r="K2">
-        <v>2.0513490559874499</v>
+        <v>1.76643768400392</v>
       </c>
       <c r="L2">
         <v>0.56417489421720801</v>
       </c>
       <c r="M2">
-        <v>0.81831250691141699</v>
+        <v>0.77390823659480701</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1286,16 +1306,16 @@
         <v>41.4</v>
       </c>
       <c r="J3">
-        <v>0.198873052701355</v>
+        <v>4.9681212221580097E-2</v>
       </c>
       <c r="K3">
-        <v>0.65304707140173701</v>
+        <v>0.467680937671412</v>
       </c>
       <c r="L3">
         <v>3.90977443609024</v>
       </c>
       <c r="M3">
-        <v>3.3254156769596199</v>
+        <v>3.3020548758760002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,16 +1347,16 @@
         <v>52.9</v>
       </c>
       <c r="J4">
-        <v>1.6866400355082101</v>
+        <v>1.74530394911996</v>
       </c>
       <c r="K4">
-        <v>2.01727560491444</v>
+        <v>2.0703711649860601</v>
       </c>
       <c r="L4">
         <v>0.30659172202351698</v>
       </c>
       <c r="M4">
-        <v>0.77806243476610004</v>
+        <v>0.79711520212564402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1368,16 +1388,16 @@
         <v>49.6</v>
       </c>
       <c r="J5">
-        <v>0.32321781289279899</v>
+        <v>0.30528867738170401</v>
       </c>
       <c r="K5">
-        <v>0.18210197710718101</v>
+        <v>0.214655088301306</v>
       </c>
       <c r="L5">
         <v>3.6272670419012001</v>
       </c>
       <c r="M5">
-        <v>3.4086405073325401</v>
+        <v>3.4475926292847299</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1409,16 +1429,16 @@
         <v>41.2</v>
       </c>
       <c r="J6">
-        <v>0.66367362873315705</v>
+        <v>1.0713937859160401</v>
       </c>
       <c r="K6">
-        <v>1.21612597096764</v>
+        <v>1.6831474857984501</v>
       </c>
       <c r="L6">
         <v>2.81293952180028</v>
       </c>
       <c r="M6">
-        <v>3.1057431599704302</v>
+        <v>3.1808654913081198</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1450,16 +1470,16 @@
         <v>50.4</v>
       </c>
       <c r="J7">
-        <v>1.52025703314788</v>
+        <v>1.44245845092505</v>
       </c>
       <c r="K7">
-        <v>1.89990075145328</v>
+        <v>1.8156028368794299</v>
       </c>
       <c r="L7">
         <v>0.76796489303346405</v>
       </c>
       <c r="M7">
-        <v>1.13738401676145</v>
+        <v>1.15745360207543</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1491,13 +1511,13 @@
         <v>66.7</v>
       </c>
       <c r="J8">
-        <v>3.1784544461967599</v>
+        <v>3.0350855894136202</v>
       </c>
       <c r="K8">
-        <v>3.6320978184853399</v>
+        <v>3.47692585568499</v>
       </c>
       <c r="L8">
-        <v>0.94925155166118302</v>
+        <v>0.87655222790357301</v>
       </c>
       <c r="M8">
         <v>0.63167393593021803</v>
@@ -1532,16 +1552,16 @@
         <v>57.7</v>
       </c>
       <c r="J9">
-        <v>5.0025012506253104</v>
+        <v>5.0195947636121003</v>
       </c>
       <c r="K9">
-        <v>5.5396132252027401</v>
+        <v>5.52679184080844</v>
       </c>
       <c r="L9">
-        <v>2.4378352023403198</v>
+        <v>2.5365853658536701</v>
       </c>
       <c r="M9">
-        <v>0.66075465136498401</v>
+        <v>0.76548364648574296</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1573,16 +1593,16 @@
         <v>67.5</v>
       </c>
       <c r="J10">
-        <v>1.42733275528579</v>
+        <v>1.10895851426281</v>
       </c>
       <c r="K10">
-        <v>1.73703499171644</v>
+        <v>1.3880506940253401</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.15174506828527801</v>
       </c>
       <c r="M10">
-        <v>0.77334919690659698</v>
+        <v>0.75842070042383103</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1614,16 +1634,16 @@
         <v>35.9</v>
       </c>
       <c r="J11">
-        <v>1.7263644396112201</v>
+        <v>1.6989466530750901</v>
       </c>
       <c r="K11">
-        <v>1.76097194730734</v>
+        <v>1.73802265799172</v>
       </c>
       <c r="L11">
         <v>0.74211502782931404</v>
       </c>
       <c r="M11">
-        <v>0.53065214355536305</v>
+        <v>0.50265289025411797</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1655,34 +1675,75 @@
         <v>47</v>
       </c>
       <c r="J12">
-        <v>2.3187667218754102</v>
+        <v>2.4090242814352201</v>
       </c>
       <c r="K12">
-        <v>3.30885605591437</v>
+        <v>3.4033325219623398</v>
       </c>
       <c r="L12">
         <v>5.7210965435041796</v>
       </c>
       <c r="M12">
-        <v>4.6956160398919602</v>
+        <v>4.7159031889477596</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J13" s="1">
-        <f>AVERAGE(J2:J12)</f>
-        <v>1.7954973124629883</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13:M13" si="0">AVERAGE(K2:K12)</f>
-        <v>2.1816704064052685</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13">
+        <v>21.1</v>
+      </c>
+      <c r="J13">
+        <v>1.3722674325833699</v>
+      </c>
+      <c r="K13">
+        <v>1.2004309239214099</v>
+      </c>
+      <c r="L13">
+        <v>5.8956916099773196</v>
+      </c>
+      <c r="M13">
+        <v>3.6188178528347401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>AVERAGE(J2:J13)</f>
+        <v>1.7256397993325638</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:M14" si="0">AVERAGE(K2:K13)</f>
+        <v>2.062620807669568</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>1.9853646213091729</v>
-      </c>
-      <c r="M13" s="1">
+        <v>2.3260415293682701</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>1.8059640245773345</v>
+        <v>1.9709951876784286</v>
       </c>
     </row>
   </sheetData>
